--- a/medicine/Enfance/Gaston_Choquet/Gaston_Choquet.xlsx
+++ b/medicine/Enfance/Gaston_Choquet/Gaston_Choquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaston Choquet est un auteur français d'histoires de littérature d'enfance et de jeunesse et  de récits d'aventures populaires.
 Il publie un grand nombre de romans dans les différentes collections et publications des frères Offenstadt, comme L'Intrépide ou la Collection d'aventures où il écrit au coté d'auteurs comme Jo Valle ou José Moselli.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>À travers le Yunnan
 Les Aventures de Coucou, un gamin de paris, au pays du scalp (19 volumes)
